--- a/SAIL_22_sandiego_fy18q2.xlsx
+++ b/SAIL_22_sandiego_fy18q2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alice\Documents\UCSD\The Guardian\sail adjusted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8580011-73C3-4FBE-8B20-6D5700970F1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB20072C-B5AE-46B2-810E-33F9187324D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13510" windowHeight="4210" xr2:uid="{188B7D54-DEAD-450F-B0B4-1EC2D0C22FB4}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>Measure</t>
   </si>
@@ -38,18 +38,12 @@
     <t>Measure Unit</t>
   </si>
   <si>
-    <t>Preferred Direction</t>
-  </si>
-  <si>
     <t>San Diego</t>
   </si>
   <si>
     <t>Benchmark</t>
   </si>
   <si>
-    <t>10th-50th-90th ptile</t>
-  </si>
-  <si>
     <t>Access</t>
   </si>
   <si>
@@ -65,18 +59,12 @@
     <t>wct %</t>
   </si>
   <si>
-    <t>↑</t>
-  </si>
-  <si>
     <t>51.311</t>
   </si>
   <si>
     <t>61.612</t>
   </si>
   <si>
-    <t>43.064 - 52.702 - 61.612</t>
-  </si>
-  <si>
     <t xml:space="preserve">    b. Specialty Care timely appointment, care and information</t>
   </si>
   <si>
@@ -86,9 +74,6 @@
     <t>59.238</t>
   </si>
   <si>
-    <t>42.058 - 50.410 - 59.238</t>
-  </si>
-  <si>
     <t xml:space="preserve">    c. Days Waited for Urgent Appointment (PCMH)</t>
   </si>
   <si>
@@ -98,9 +83,6 @@
     <t>49.482</t>
   </si>
   <si>
-    <t>29.729 - 40.856 - 49.482</t>
-  </si>
-  <si>
     <t xml:space="preserve">  2. Wait times</t>
   </si>
   <si>
@@ -116,9 +98,6 @@
     <t>93.788</t>
   </si>
   <si>
-    <t>61.377 - 79.625 - 93.788</t>
-  </si>
-  <si>
     <t xml:space="preserve">    b. Specialty care new patient wait time &lt;=30 days from create date</t>
   </si>
   <si>
@@ -128,9 +107,6 @@
     <t>85.089</t>
   </si>
   <si>
-    <t>68.627 - 75.904 - 85.089</t>
-  </si>
-  <si>
     <t xml:space="preserve">    c. Mental health care new patient wait time &lt;=30 days from create date</t>
   </si>
   <si>
@@ -140,9 +116,6 @@
     <t>97.178</t>
   </si>
   <si>
-    <t>86.855 - 92.986 - 97.178</t>
-  </si>
-  <si>
     <t xml:space="preserve">  3. Call center responsiveness</t>
   </si>
   <si>
@@ -152,18 +125,12 @@
     <t>seconds</t>
   </si>
   <si>
-    <t>↓</t>
-  </si>
-  <si>
     <t>60.629</t>
   </si>
   <si>
     <t>20.860</t>
   </si>
   <si>
-    <t>20.860 - 50.544 - 121.784</t>
-  </si>
-  <si>
     <t xml:space="preserve">    b. Call center abandonment rate</t>
   </si>
   <si>
@@ -173,9 +140,6 @@
     <t>2.702</t>
   </si>
   <si>
-    <t>2.702 - 6.651 - 12.969</t>
-  </si>
-  <si>
     <t>Mental Health</t>
   </si>
   <si>
@@ -188,9 +152,6 @@
     <t>1.228</t>
   </si>
   <si>
-    <t>-0.987 - -0.032 - 1.228</t>
-  </si>
-  <si>
     <t xml:space="preserve">  1. Population coverage</t>
   </si>
   <si>
@@ -200,9 +161,6 @@
     <t>1.103</t>
   </si>
   <si>
-    <t>-1.049 - -0.248 - 1.103</t>
-  </si>
-  <si>
     <t xml:space="preserve">  2. Continuity of care</t>
   </si>
   <si>
@@ -212,9 +170,6 @@
     <t>1.622</t>
   </si>
   <si>
-    <t>-0.693 - 0.400 - 1.622</t>
-  </si>
-  <si>
     <t xml:space="preserve">  3. Experience of care</t>
   </si>
   <si>
@@ -224,7 +179,13 @@
     <t>1.177</t>
   </si>
   <si>
-    <t>-1.331 - 0.024 - 1.177</t>
+    <t>10th</t>
+  </si>
+  <si>
+    <t>50th</t>
+  </si>
+  <si>
+    <t>90th ptile</t>
   </si>
 </sst>
 </file>
@@ -578,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA83518-A475-49BC-A3BF-E917CA71BD81}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -601,330 +562,357 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
+      <c r="E4">
+        <v>43.064</v>
+      </c>
+      <c r="F4">
+        <v>52.701999999999998</v>
+      </c>
+      <c r="G4">
+        <v>61.612000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>42.058</v>
+      </c>
+      <c r="F5">
+        <v>50.41</v>
+      </c>
+      <c r="G5">
+        <v>59.238</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>29.728999999999999</v>
+      </c>
+      <c r="F6">
+        <v>40.856000000000002</v>
+      </c>
+      <c r="G6">
+        <v>49.481999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>61.377000000000002</v>
+      </c>
+      <c r="F8">
+        <v>79.625</v>
+      </c>
+      <c r="G8">
+        <v>93.787999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>68.626999999999995</v>
+      </c>
+      <c r="F9">
+        <v>75.903999999999996</v>
+      </c>
+      <c r="G9">
+        <v>85.088999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>86.855000000000004</v>
+      </c>
+      <c r="F10">
+        <v>92.986000000000004</v>
+      </c>
+      <c r="G10">
+        <v>97.177999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>20.86</v>
+      </c>
+      <c r="F12">
+        <v>50.543999999999997</v>
+      </c>
+      <c r="G12">
+        <v>121.78400000000001</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>2.702</v>
+      </c>
+      <c r="F13">
+        <v>6.6509999999999998</v>
+      </c>
+      <c r="G13">
+        <v>12.968999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="E14">
+        <v>-0.98699999999999999</v>
+      </c>
+      <c r="F14">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="G14">
+        <v>1.228</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" t="s">
-        <v>56</v>
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <v>-1.0489999999999999</v>
+      </c>
+      <c r="F15">
+        <v>-0.248</v>
+      </c>
+      <c r="G15">
+        <v>1.103</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>-0.69299999999999995</v>
+      </c>
+      <c r="F16">
+        <v>0.4</v>
+      </c>
+      <c r="G16">
+        <v>1.6220000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" t="s">
-        <v>64</v>
+        <v>48</v>
+      </c>
+      <c r="E17">
+        <v>-1.331</v>
+      </c>
+      <c r="F17">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G17">
+        <v>1.177</v>
       </c>
     </row>
   </sheetData>
